--- a/similarities/split_global/harmonic_similarity_timestamps_167.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_167.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db', 'Ab', 'Db/5']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C/5']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:49.808000')]</t>
+          <t>('0:00:38.620000', '0:00:44.060000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:26.397823', '0:01:49.977687')]</t>
+          <t>('0:01:10.519024', '0:01:15.720294')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=86.397823']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A', 'D/5', 'A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:10.779093', '0:00:14.076327')]</t>
+          <t>('0:00:00.939000', '0:00:05.544000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.540000', '0:00:14.560000')]</t>
+          <t>('0:02:04.920000', '0:02:09.880000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=10.779093']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=12.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=53.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:00:11.465419', '0:00:19.151224')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=11.465419</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:45.220000', '0:02:02.720000'), ('0:00:14.220000', '0:00:46.760000')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:37.020000', '0:00:49.640000'), ('0:00:43.120000', '0:00:52.840000')]</t>
+          <t>('0:01:03.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=105.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=14.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=37.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=43.12']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['E/5', 'F#/4', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['E', 'F#', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000'), ('0:01:21.100000', '0:01:27.580000')]</t>
+          <t>('0:02:06.195000', '0:02:12.656000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.480000', '0:00:13.840000'), ('0:00:15.780000', '0:00:21.280000')]</t>
+          <t>('0:00:52.727278', '0:01:03.091379')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=126.195</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=7.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=52.727278</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:09.540000', '0:00:11.420000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:19.000294', '0:00:29.309954')]</t>
+          <t>('0:01:01.760000', '0:01:09.340000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=61.76</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:07.560000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G'], ['D', 'G', 'C']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E'], ['B', 'E', 'A']]</t>
+          <t>['E/5', 'B', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:05.382154', '0:01:17.688730'), ('0:00:59.333356', '0:01:08.841927')]</t>
+          <t>('0:00:55.820000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.971000', '0:00:23.861000'), ('0:00:14.033000', '0:00:28.278000')]</t>
+          <t>('0:00:59.327006', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=65.382154', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=59.333356']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=55.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=14.033']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=59.327006</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:min/b3', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'A:7/C#', 'D:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
+          <t>('0:00:44.913000', '0:00:50.190000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:14.120000', '0:01:31.180000')]</t>
+          <t>('0:00:11.600000', '0:00:17.420000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=2.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=44.913</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=74.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=11.6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_35</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:7']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:34.550000', '0:00:49.160000')]</t>
+          <t>('0:00:19.140000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:25.150000', '0:01:27.510000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-35#t=34.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=85.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:50.360000', '0:00:57.040000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:45.970000', '0:00:52.390000')]</t>
+          <t>('0:00:09.140000', '0:00:16.920000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=45.97']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F:7']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:7', 'B:7']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:21.040000', '0:00:34.940000')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:02.750000', '0:00:05.620000')]</t>
+          <t>('0:00:10.130000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=21.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=2.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:19.140000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:33', '0:01:43.280000')]</t>
+          <t>('0:00:33.940000', '0:00:38.620000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
+          <t>('0:01:26.940000', '0:01:37.980000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=93.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=33.94</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=96.74']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
